--- a/SAPLINK/projects/HCVN/ZBOOKNG.XLSX
+++ b/SAPLINK/projects/HCVN/ZBOOKNG.XLSX
@@ -223,6 +223,18 @@
     <t>ZBOOKNG_WS_ITEM_S</t>
   </si>
   <si>
+    <t>TRAN</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>ZBOOKNG_CSV_UPLOAD</t>
+  </si>
+  <si>
+    <t>ZBOOKNG_CUST</t>
+  </si>
+  <si>
     <t>TTYP</t>
   </si>
   <si>
@@ -235,6 +247,12 @@
     <t>ZBOOKNG_DOC_ITEMS_TT</t>
   </si>
   <si>
+    <t>VCLS</t>
+  </si>
+  <si>
+    <t>View cluster</t>
+  </si>
+  <si>
     <t>VIEW</t>
   </si>
   <si>
@@ -290,24 +308,6 @@
   </si>
   <si>
     <t>ZBOOKNG_BUKRSS</t>
-  </si>
-  <si>
-    <t>TRAN</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>ZBOOKNG_CSV_UPLOAD</t>
-  </si>
-  <si>
-    <t>ZBOOKNG_CUST</t>
-  </si>
-  <si>
-    <t>VCLS</t>
-  </si>
-  <si>
-    <t>View cluster</t>
   </si>
   <si>
     <t>WEBI</t>
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -1763,7 +1763,7 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
-      </c>
       <c r="E67" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1797,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1817,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1837,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1877,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1917,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" t="s">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1937,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1957,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" t="s">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
         <v>95</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1997,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
         <v>96</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2017,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2037,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
         <v>98</v>
       </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
       <c r="E80" t="s">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
